--- a/data/input/absenteeism_data_42.xlsx
+++ b/data/input/absenteeism_data_42.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>41494</v>
+        <v>43317</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eduardo Farias</t>
+          <t>Lucas Gabriel Nascimento</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,147 +490,147 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45100</v>
+        <v>45081</v>
       </c>
       <c r="G2" t="n">
-        <v>3492.24</v>
+        <v>6495.35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>32573</v>
+        <v>8840</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vitória Fernandes</t>
+          <t>Lívia das Neves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45080</v>
+        <v>45104</v>
       </c>
       <c r="G3" t="n">
-        <v>5525.73</v>
+        <v>5680.91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>44804</v>
+        <v>7129</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Murilo Gonçalves</t>
+          <t>Laura Almeida</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45100</v>
+        <v>45081</v>
       </c>
       <c r="G4" t="n">
-        <v>11163.59</v>
+        <v>8599.049999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>71171</v>
+        <v>25414</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Natália Gomes</t>
+          <t>Erick Silveira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45106</v>
+        <v>45096</v>
       </c>
       <c r="G5" t="n">
-        <v>10963.17</v>
+        <v>6678.92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>44212</v>
+        <v>1532</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Júlia Lima</t>
+          <t>Eloah Gomes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45099</v>
+        <v>45104</v>
       </c>
       <c r="G6" t="n">
-        <v>4739.78</v>
+        <v>3789.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>64471</v>
+        <v>52808</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Larissa Campos</t>
+          <t>Maria da Cruz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -642,126 +642,126 @@
         <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45083</v>
+        <v>45078</v>
       </c>
       <c r="G7" t="n">
-        <v>11761.33</v>
+        <v>8160.54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>78114</v>
+        <v>74576</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lorenzo Melo</t>
+          <t>Srta. Ana Laura Cardoso</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45090</v>
+        <v>45092</v>
       </c>
       <c r="G8" t="n">
-        <v>8097.25</v>
+        <v>8330.48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>91216</v>
+        <v>62081</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rafael Porto</t>
+          <t>Joana Castro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45086</v>
+        <v>45078</v>
       </c>
       <c r="G9" t="n">
-        <v>2881.65</v>
+        <v>7037.28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>32234</v>
+        <v>85638</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>André Fogaça</t>
+          <t>Bianca Duarte</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45094</v>
+        <v>45086</v>
       </c>
       <c r="G10" t="n">
-        <v>10518.88</v>
+        <v>8120.77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>69756</v>
+        <v>8243</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nina Porto</t>
+          <t>Gustavo Henrique das Neves</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45089</v>
+        <v>45084</v>
       </c>
       <c r="G11" t="n">
-        <v>7160.86</v>
+        <v>11431.23</v>
       </c>
     </row>
   </sheetData>
